--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ECC4C1-7BD2-44D7-B846-D40AA6B8B7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE00825-A423-41A6-BD31-4E91C3A03AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8352" yWindow="3744" windowWidth="12276" windowHeight="8616" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>usar</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>ABA327</t>
+  </si>
+  <si>
+    <t>tambo real 236</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
@@ -707,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -723,9 +726,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -739,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -766,6 +766,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\0_plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE00825-A423-41A6-BD31-4E91C3A03AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FB3AE-24E5-4AC1-B4A0-E470136F6816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8352" yWindow="3744" windowWidth="12276" windowHeight="8616" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>Test2019#</t>
   </si>
   <si>
-    <t>ROCIO PAREDES</t>
-  </si>
-  <si>
-    <t>PRUEBAS2 LEGALL LEGALL</t>
-  </si>
-  <si>
     <t>En camino</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Avenida juan de arona 780, San isidro</t>
   </si>
   <si>
-    <t>tambo real</t>
-  </si>
-  <si>
     <t>Miraflores</t>
   </si>
   <si>
@@ -127,22 +115,70 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ABA319</t>
-  </si>
-  <si>
-    <t>ABA320</t>
-  </si>
-  <si>
-    <t>ABA321</t>
-  </si>
-  <si>
-    <t>ABA322</t>
-  </si>
-  <si>
-    <t>ABA323</t>
-  </si>
-  <si>
-    <t>ABA324</t>
+    <t>PROCURADOR AUTO2</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO1</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO3</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO4</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO9</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO10</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO11</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO12</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO13</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO14</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO15</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO16</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO17</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO18</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO19</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO20</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO21</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO22</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO23</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO24</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO25</t>
+  </si>
+  <si>
+    <t>tambo real 236</t>
   </si>
   <si>
     <t>ABA325</t>
@@ -154,7 +190,22 @@
     <t>ABA327</t>
   </si>
   <si>
-    <t>tambo real 236</t>
+    <t>ABA328</t>
+  </si>
+  <si>
+    <t>ABA329</t>
+  </si>
+  <si>
+    <t>ABA330</t>
+  </si>
+  <si>
+    <t>ABA331</t>
+  </si>
+  <si>
+    <t>ABA332</t>
+  </si>
+  <si>
+    <t>ABA333</t>
   </si>
 </sst>
 </file>
@@ -612,12 +663,12 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
@@ -630,302 +681,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,133 +1001,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
-  <dimension ref="A1:AMD5"/>
+  <dimension ref="A1:AMD26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A5"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="1018" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="1018" width="9.109375" style="1" customWidth="1"/>
     <col min="1019" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="7">
+        <f>'01-RegistrarAtencion'!A2</f>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA319</v>
+        <v>ABA325</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="7">
+        <f>'01-RegistrarAtencion'!A3</f>
+        <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA320</v>
+        <v>ABA326</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="7">
+        <f>'01-RegistrarAtencion'!A4</f>
+        <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA321</v>
+        <v>ABA327</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="7">
+        <f>'01-RegistrarAtencion'!A5</f>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA322</v>
+        <v>ABA328</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A6</f>
+        <v>X</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D6</f>
+        <v>ABA329</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A7</f>
+        <v>X</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D7</f>
+        <v>ABA330</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A8</f>
+        <v>X</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D8</f>
+        <v>ABA331</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A9</f>
+        <v>X</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D9</f>
+        <v>ABA332</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f>'01-RegistrarAtencion'!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D10</f>
+        <v>ABA333</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f>'01-RegistrarAtencion'!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <f>'01-RegistrarAtencion'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f>'01-RegistrarAtencion'!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <f>'01-RegistrarAtencion'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f>'01-RegistrarAtencion'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <f>'01-RegistrarAtencion'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f>'01-RegistrarAtencion'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <f>'01-RegistrarAtencion'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f>'01-RegistrarAtencion'!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <f>'01-RegistrarAtencion'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f>'01-RegistrarAtencion'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <f>'01-RegistrarAtencion'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f>'01-RegistrarAtencion'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <f>'01-RegistrarAtencion'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f>'01-RegistrarAtencion'!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <f>'01-RegistrarAtencion'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f>'01-RegistrarAtencion'!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <f>'01-RegistrarAtencion'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f>'01-RegistrarAtencion'!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <f>'01-RegistrarAtencion'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f>'01-RegistrarAtencion'!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <f>'01-RegistrarAtencion'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f>'01-RegistrarAtencion'!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <f>'01-RegistrarAtencion'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f>'01-RegistrarAtencion'!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <f>'01-RegistrarAtencion'!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f>'01-RegistrarAtencion'!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <f>'01-RegistrarAtencion'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f>'01-RegistrarAtencion'!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <f>'01-RegistrarAtencion'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <f>'01-RegistrarAtencion'!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <f>'01-RegistrarAtencion'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F38DA22A-F66F-48EF-A246-7CC780DC453E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{539B428D-6F6D-4E7B-9E08-F978316EE028}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{555577FD-DEB6-4943-9200-0A97263081AC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3BEB8098-14A3-41BE-ADE5-52226F072453}"/>
+    <hyperlink ref="B3:B26" r:id="rId2" display="clegall@gmail.com" xr:uid="{BFFAE488-3FED-4EFA-AACA-FBBB98F5C98A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\0_plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FB3AE-24E5-4AC1-B4A0-E470136F6816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B41CD1-63D0-421A-B4B4-0C58FEDDA561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -181,31 +181,31 @@
     <t>tambo real 236</t>
   </si>
   <si>
-    <t>ABA325</t>
-  </si>
-  <si>
-    <t>ABA326</t>
-  </si>
-  <si>
-    <t>ABA327</t>
-  </si>
-  <si>
-    <t>ABA328</t>
-  </si>
-  <si>
-    <t>ABA329</t>
-  </si>
-  <si>
-    <t>ABA330</t>
-  </si>
-  <si>
-    <t>ABA331</t>
-  </si>
-  <si>
-    <t>ABA332</t>
-  </si>
-  <si>
-    <t>ABA333</t>
+    <t>ABA334</t>
+  </si>
+  <si>
+    <t>ABA335</t>
+  </si>
+  <si>
+    <t>ABA336</t>
+  </si>
+  <si>
+    <t>ABA337</t>
+  </si>
+  <si>
+    <t>ABA338</t>
+  </si>
+  <si>
+    <t>ABA339</t>
+  </si>
+  <si>
+    <t>ABA340</t>
+  </si>
+  <si>
+    <t>ABA341</t>
+  </si>
+  <si>
+    <t>ABA342</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,6 +713,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -742,6 +745,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -771,6 +777,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -800,6 +809,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -829,9 +841,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -861,9 +870,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -893,9 +899,6 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -925,9 +928,6 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,9 +1040,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>'01-RegistrarAtencion'!A2</f>
-        <v>0</v>
+      <c r="A2" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA325</v>
+        <v>ABA334</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1062,9 +1062,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>'01-RegistrarAtencion'!A3</f>
-        <v>0</v>
+      <c r="A3" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA326</v>
+        <v>ABA335</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -1084,9 +1084,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>'01-RegistrarAtencion'!A4</f>
-        <v>0</v>
+      <c r="A4" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA327</v>
+        <v>ABA336</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -1106,9 +1106,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>'01-RegistrarAtencion'!A5</f>
-        <v>0</v>
+      <c r="A5" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA328</v>
+        <v>ABA337</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1129,8 +1129,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A6</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA329</v>
+        <v>ABA338</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1151,8 +1151,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A7</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA330</v>
+        <v>ABA339</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1173,8 +1173,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A8</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA331</v>
+        <v>ABA340</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1195,8 +1195,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A9</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA332</v>
+        <v>ABA341</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -1216,9 +1216,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>'01-RegistrarAtencion'!A10</f>
-        <v>0</v>
+      <c r="A10" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA333</v>
+        <v>ABA342</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>31</v>
@@ -1238,9 +1238,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>'01-RegistrarAtencion'!A11</f>
-        <v>0</v>
+      <c r="A11" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -1260,9 +1260,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>'01-RegistrarAtencion'!A12</f>
-        <v>0</v>
+      <c r="A12" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1282,9 +1282,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>'01-RegistrarAtencion'!A13</f>
-        <v>0</v>
+      <c r="A13" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1304,9 +1304,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>'01-RegistrarAtencion'!A14</f>
-        <v>0</v>
+      <c r="A14" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -1326,9 +1326,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>'01-RegistrarAtencion'!A15</f>
-        <v>0</v>
+      <c r="A15" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -1348,9 +1348,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>'01-RegistrarAtencion'!A16</f>
-        <v>0</v>
+      <c r="A16" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1370,9 +1370,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>'01-RegistrarAtencion'!A17</f>
-        <v>0</v>
+      <c r="A17" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1392,9 +1392,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>'01-RegistrarAtencion'!A18</f>
-        <v>0</v>
+      <c r="A18" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1414,9 +1414,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f>'01-RegistrarAtencion'!A19</f>
-        <v>0</v>
+      <c r="A19" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
@@ -1436,9 +1436,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>'01-RegistrarAtencion'!A20</f>
-        <v>0</v>
+      <c r="A20" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -1458,9 +1458,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>'01-RegistrarAtencion'!A21</f>
-        <v>0</v>
+      <c r="A21" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
@@ -1480,9 +1480,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>'01-RegistrarAtencion'!A22</f>
-        <v>0</v>
+      <c r="A22" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1502,9 +1502,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>'01-RegistrarAtencion'!A23</f>
-        <v>0</v>
+      <c r="A23" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
@@ -1524,9 +1524,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f>'01-RegistrarAtencion'!A24</f>
-        <v>0</v>
+      <c r="A24" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -1546,9 +1546,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>'01-RegistrarAtencion'!A25</f>
-        <v>0</v>
+      <c r="A25" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
@@ -1568,9 +1568,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <f>'01-RegistrarAtencion'!A26</f>
-        <v>0</v>
+      <c r="A26" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A26="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B41CD1-63D0-421A-B4B4-0C58FEDDA561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416D7C4-3DFA-442C-BF3F-F5BFB6A8A1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12276" windowHeight="8616" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,9 +713,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -745,9 +742,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -777,9 +771,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -809,9 +800,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -841,6 +829,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -870,6 +861,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1003,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1036,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1064,7 +1058,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1086,7 +1080,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1108,7 +1102,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1130,7 +1124,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1152,7 +1146,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416D7C4-3DFA-442C-BF3F-F5BFB6A8A1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFBB848-0FAF-4D98-8057-FB30BD1E82FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12276" windowHeight="8616" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,9 +829,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -997,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1121,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFBB848-0FAF-4D98-8057-FB30BD1E82FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034974F-C605-41F5-8BC7-306D127B4171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
@@ -181,24 +181,6 @@
     <t>tambo real 236</t>
   </si>
   <si>
-    <t>ABA334</t>
-  </si>
-  <si>
-    <t>ABA335</t>
-  </si>
-  <si>
-    <t>ABA336</t>
-  </si>
-  <si>
-    <t>ABA337</t>
-  </si>
-  <si>
-    <t>ABA338</t>
-  </si>
-  <si>
-    <t>ABA339</t>
-  </si>
-  <si>
     <t>ABA340</t>
   </si>
   <si>
@@ -206,6 +188,24 @@
   </si>
   <si>
     <t>ABA342</t>
+  </si>
+  <si>
+    <t>ABA343</t>
+  </si>
+  <si>
+    <t>ABA344</t>
+  </si>
+  <si>
+    <t>ABA345</t>
+  </si>
+  <si>
+    <t>ABA346</t>
+  </si>
+  <si>
+    <t>ABA347</t>
+  </si>
+  <si>
+    <t>ABA348</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,6 +713,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -742,6 +745,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -771,6 +777,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -800,6 +809,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -858,9 +870,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -994,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1042,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1043,7 +1052,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA334</v>
+        <v>ABA340</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1055,7 +1064,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1065,7 +1074,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA335</v>
+        <v>ABA341</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -1077,7 +1086,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1087,7 +1096,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA336</v>
+        <v>ABA342</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -1099,7 +1108,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1109,7 +1118,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA337</v>
+        <v>ABA343</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1131,7 +1140,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA338</v>
+        <v>ABA344</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1143,7 +1152,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1153,7 +1162,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA339</v>
+        <v>ABA345</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1175,7 +1184,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA340</v>
+        <v>ABA346</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -1197,7 +1206,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA341</v>
+        <v>ABA347</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -1219,7 +1228,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA342</v>
+        <v>ABA348</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>31</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034974F-C605-41F5-8BC7-306D127B4171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241FA553-AAAB-4534-8230-93C2F16963CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,9 +713,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1039,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241FA553-AAAB-4534-8230-93C2F16963CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93A84D-0D8E-4950-9031-DCDCC16D2910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,9 +742,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -774,9 +771,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -806,9 +800,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -838,6 +829,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1055,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1083,7 +1077,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1105,7 +1099,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1127,7 +1121,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93A84D-0D8E-4950-9031-DCDCC16D2910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDEB9E7-94BF-440F-8786-907B9548AE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,9 +829,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -861,6 +858,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1121,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1143,7 +1143,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDEB9E7-94BF-440F-8786-907B9548AE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450CD62-DA9C-4F21-BC10-8BDD614274C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -127,85 +127,37 @@
     <t>PROCURADOR AUTO4</t>
   </si>
   <si>
-    <t>PROCURADOR AUTO9</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO10</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO11</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO12</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO13</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO14</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO15</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO16</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO17</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO18</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO19</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO20</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO21</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO22</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO23</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO24</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO25</t>
-  </si>
-  <si>
     <t>tambo real 236</t>
   </si>
   <si>
-    <t>ABA340</t>
-  </si>
-  <si>
-    <t>ABA341</t>
-  </si>
-  <si>
-    <t>ABA342</t>
-  </si>
-  <si>
-    <t>ABA343</t>
-  </si>
-  <si>
-    <t>ABA344</t>
-  </si>
-  <si>
-    <t>ABA345</t>
-  </si>
-  <si>
-    <t>ABA346</t>
-  </si>
-  <si>
-    <t>ABA347</t>
+    <t>ABA350</t>
+  </si>
+  <si>
+    <t>ABA351</t>
+  </si>
+  <si>
+    <t>ABA352</t>
+  </si>
+  <si>
+    <t>ABA353</t>
+  </si>
+  <si>
+    <t>ABA354</t>
+  </si>
+  <si>
+    <t>ABA355</t>
+  </si>
+  <si>
+    <t>ABA356</t>
+  </si>
+  <si>
+    <t>ABA357</t>
   </si>
   <si>
     <t>ABA348</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO5</t>
   </si>
 </sst>
 </file>
@@ -662,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -742,6 +694,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -749,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -771,6 +726,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -778,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -800,6 +758,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -807,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -829,6 +790,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -836,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -858,9 +822,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -868,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -897,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -926,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -955,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -994,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,10 +992,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,10 +1000,10 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA340</v>
+        <v>ABA348</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1055,7 +1012,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1065,10 +1022,10 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA341</v>
+        <v>ABA350</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1077,7 +1034,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1087,10 +1044,10 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA342</v>
+        <v>ABA351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1099,7 +1056,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1109,10 +1066,10 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA343</v>
+        <v>ABA352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1121,7 +1078,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1131,10 +1088,10 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA344</v>
+        <v>ABA353</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -1143,7 +1100,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1153,10 +1110,10 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA345</v>
+        <v>ABA354</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -1175,10 +1132,10 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA346</v>
+        <v>ABA355</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -1186,7 +1143,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1197,10 +1154,10 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA347</v>
+        <v>ABA356</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1208,7 +1165,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1219,10 +1176,10 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA348</v>
+        <v>ABA357</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1230,7 +1187,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1244,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1266,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1288,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -1310,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1332,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1354,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1376,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1398,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1420,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1442,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1464,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1486,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1508,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1530,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1552,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1574,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450CD62-DA9C-4F21-BC10-8BDD614274C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE801E2A-4707-4C8D-B92E-7FDFFA4DAFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,9 +694,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -726,9 +723,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -758,9 +752,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -790,9 +781,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -822,6 +810,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -851,6 +842,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -956,7 +950,7 @@
   <dimension ref="A1:AMD26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E26"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +986,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A1="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1009,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1033,8 +1031,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1055,8 +1053,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1077,8 +1075,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1099,7 +1097,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1121,8 +1119,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1143,8 +1141,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1165,7 +1163,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1187,7 +1185,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1209,7 +1207,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1231,7 +1229,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1253,7 +1251,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1275,7 +1273,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1297,7 +1295,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1319,7 +1317,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1341,7 +1339,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1363,7 +1361,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1385,7 +1383,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1407,7 +1405,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1429,7 +1427,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1451,7 +1449,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1473,7 +1471,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1495,7 +1493,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1517,7 +1515,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A26="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B26" s="5" t="s">

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE801E2A-4707-4C8D-B92E-7FDFFA4DAFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC737A86-7753-4F89-9382-8A42437786A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -130,34 +130,34 @@
     <t>tambo real 236</t>
   </si>
   <si>
-    <t>ABA350</t>
-  </si>
-  <si>
-    <t>ABA351</t>
-  </si>
-  <si>
-    <t>ABA352</t>
-  </si>
-  <si>
-    <t>ABA353</t>
-  </si>
-  <si>
-    <t>ABA354</t>
-  </si>
-  <si>
-    <t>ABA355</t>
-  </si>
-  <si>
-    <t>ABA356</t>
-  </si>
-  <si>
-    <t>ABA357</t>
-  </si>
-  <si>
-    <t>ABA348</t>
-  </si>
-  <si>
     <t>PROCURADOR AUTO5</t>
+  </si>
+  <si>
+    <t>ABA358</t>
+  </si>
+  <si>
+    <t>ABA359</t>
+  </si>
+  <si>
+    <t>ABA360</t>
+  </si>
+  <si>
+    <t>ABA361</t>
+  </si>
+  <si>
+    <t>ABA362</t>
+  </si>
+  <si>
+    <t>ABA363</t>
+  </si>
+  <si>
+    <t>ABA364</t>
+  </si>
+  <si>
+    <t>ABA365</t>
+  </si>
+  <si>
+    <t>ABA366</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +665,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -672,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -694,6 +697,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -701,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -723,6 +729,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -730,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -752,6 +761,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -759,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -788,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -810,9 +822,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -820,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -842,9 +851,6 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -852,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -881,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -910,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -949,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,8 +993,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A1="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -998,10 +1004,10 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA348</v>
+        <v>ABA358</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1009,8 +1015,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1020,10 +1026,10 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA350</v>
+        <v>ABA359</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1031,8 +1037,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1042,10 +1048,10 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA351</v>
+        <v>ABA360</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1053,8 +1059,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1064,10 +1070,10 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA352</v>
+        <v>ABA361</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1075,7 +1081,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1086,10 +1092,10 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA353</v>
+        <v>ABA362</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1108,7 +1114,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA354</v>
+        <v>ABA363</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1119,8 +1125,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1130,7 +1136,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA355</v>
+        <v>ABA364</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1141,8 +1147,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v>X</v>
+        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA356</v>
+        <v>ABA365</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1163,7 +1169,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1174,7 +1180,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA357</v>
+        <v>ABA366</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1199,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1207,7 +1213,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1287,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1295,7 +1301,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1309,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1317,7 +1323,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1353,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1375,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1405,7 +1411,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1449,7 +1455,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1463,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1507,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
+        <f>IF('01-RegistrarAtencion'!A26="X","X"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC737A86-7753-4F89-9382-8A42437786A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B428C3D-DC09-410B-884A-3B1A5E759F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,9 +665,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -697,9 +694,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -729,9 +723,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -761,9 +752,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -793,6 +781,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -822,6 +813,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -955,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,7 +988,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1016,7 +1010,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1038,7 +1032,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1060,7 +1054,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1082,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1104,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B428C3D-DC09-410B-884A-3B1A5E759F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB4480-5C26-46D8-B509-B6A3D96B4B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,9 +781,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -813,9 +810,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -845,6 +839,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -874,6 +871,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1076,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1120,7 +1120,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB4480-5C26-46D8-B509-B6A3D96B4B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D0C0E-BEB4-4148-9975-FD5CF5681BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -133,31 +133,31 @@
     <t>PROCURADOR AUTO5</t>
   </si>
   <si>
-    <t>ABA358</t>
-  </si>
-  <si>
-    <t>ABA359</t>
-  </si>
-  <si>
-    <t>ABA360</t>
-  </si>
-  <si>
-    <t>ABA361</t>
-  </si>
-  <si>
-    <t>ABA362</t>
-  </si>
-  <si>
-    <t>ABA363</t>
-  </si>
-  <si>
-    <t>ABA364</t>
-  </si>
-  <si>
-    <t>ABA365</t>
-  </si>
-  <si>
     <t>ABA366</t>
+  </si>
+  <si>
+    <t>ABA367</t>
+  </si>
+  <si>
+    <t>ABA368</t>
+  </si>
+  <si>
+    <t>ABA369</t>
+  </si>
+  <si>
+    <t>ABA370</t>
+  </si>
+  <si>
+    <t>ABA371</t>
+  </si>
+  <si>
+    <t>ABA372</t>
+  </si>
+  <si>
+    <t>ABA373</t>
+  </si>
+  <si>
+    <t>ABA374</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +665,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -694,6 +697,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -839,9 +845,6 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -871,9 +874,6 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +988,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA358</v>
+        <v>ABA366</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1010,7 +1010,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA359</v>
+        <v>ABA367</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA360</v>
+        <v>ABA368</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA361</v>
+        <v>ABA369</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA362</v>
+        <v>ABA370</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA363</v>
+        <v>ABA371</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1120,7 +1120,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA364</v>
+        <v>ABA372</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1142,7 +1142,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA365</v>
+        <v>ABA373</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA366</v>
+        <v>ABA374</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D0C0E-BEB4-4148-9975-FD5CF5681BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473AFA0C-9F33-46FE-939F-C3FFD7D8BCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,9 +665,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -697,9 +694,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -729,6 +723,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -758,6 +755,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +988,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1010,7 +1010,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1032,7 +1032,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1054,7 +1054,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473AFA0C-9F33-46FE-939F-C3FFD7D8BCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66EA20-EBD6-482B-8951-655AC5AA27B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,9 +723,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -755,9 +752,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -787,6 +781,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -816,6 +813,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -950,7 +950,7 @@
   <dimension ref="A1:AMD26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1032,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1054,7 +1054,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1076,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66EA20-EBD6-482B-8951-655AC5AA27B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A53471-5E5F-4155-8E9D-5A80E71264E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,9 +781,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -813,9 +810,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -845,6 +839,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -874,6 +871,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1120,7 +1120,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A53471-5E5F-4155-8E9D-5A80E71264E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901B14E-C47C-4C97-BA89-A9A926EC9516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,31 +133,31 @@
     <t>PROCURADOR AUTO5</t>
   </si>
   <si>
-    <t>ABA366</t>
-  </si>
-  <si>
-    <t>ABA367</t>
-  </si>
-  <si>
-    <t>ABA368</t>
-  </si>
-  <si>
-    <t>ABA369</t>
-  </si>
-  <si>
-    <t>ABA370</t>
-  </si>
-  <si>
-    <t>ABA371</t>
-  </si>
-  <si>
-    <t>ABA372</t>
-  </si>
-  <si>
-    <t>ABA373</t>
-  </si>
-  <si>
-    <t>ABA374</t>
+    <t>ABA375</t>
+  </si>
+  <si>
+    <t>ABA376</t>
+  </si>
+  <si>
+    <t>ABA377</t>
+  </si>
+  <si>
+    <t>ABA378</t>
+  </si>
+  <si>
+    <t>ABA379</t>
+  </si>
+  <si>
+    <t>ABA380</t>
+  </si>
+  <si>
+    <t>ABA381</t>
+  </si>
+  <si>
+    <t>ABA382</t>
+  </si>
+  <si>
+    <t>ABA383</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +665,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -694,6 +697,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -839,9 +845,6 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -871,9 +874,6 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -988,7 +988,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA366</v>
+        <v>ABA375</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1010,7 +1010,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA367</v>
+        <v>ABA376</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA368</v>
+        <v>ABA377</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA369</v>
+        <v>ABA378</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA370</v>
+        <v>ABA379</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA371</v>
+        <v>ABA380</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1120,7 +1120,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA372</v>
+        <v>ABA381</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1142,7 +1142,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA373</v>
+        <v>ABA382</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA374</v>
+        <v>ABA383</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901B14E-C47C-4C97-BA89-A9A926EC9516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62EC23F-8DFB-4615-8C20-08727D31FD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,9 +665,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -697,9 +694,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -729,6 +723,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -758,6 +755,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +988,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1010,7 +1010,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1032,7 +1032,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1054,7 +1054,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62EC23F-8DFB-4615-8C20-08727D31FD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126AE0C9-B20E-4701-8CFE-5D60ACA5EDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,9 +723,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -755,9 +752,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -787,6 +781,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -816,6 +813,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1032,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1054,7 +1054,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1076,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126AE0C9-B20E-4701-8CFE-5D60ACA5EDF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9A976-6F9B-4704-A445-18B2E3DBF659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,9 +781,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -813,9 +810,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -845,6 +839,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -874,6 +871,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1076,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v>X</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1120,7 +1120,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9A976-6F9B-4704-A445-18B2E3DBF659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A40FB5-8510-48C9-9298-B8C1E79774BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
     <sheet name="02-AsignarProcurador" sheetId="2" r:id="rId2"/>
+    <sheet name="03-PlacaEnUso" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
   <si>
     <t>usar</t>
   </si>
@@ -94,6 +95,9 @@
     <t>Avenida juan de arona 780, San isidro</t>
   </si>
   <si>
+    <t>tambo real</t>
+  </si>
+  <si>
     <t>Miraflores</t>
   </si>
   <si>
@@ -115,49 +119,34 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PROCURADOR AUTO2</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO1</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO3</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO4</t>
-  </si>
-  <si>
-    <t>tambo real 236</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO5</t>
-  </si>
-  <si>
-    <t>ABA375</t>
-  </si>
-  <si>
-    <t>ABA376</t>
-  </si>
-  <si>
-    <t>ABA377</t>
-  </si>
-  <si>
-    <t>ABA378</t>
-  </si>
-  <si>
-    <t>ABA379</t>
-  </si>
-  <si>
-    <t>ABA380</t>
-  </si>
-  <si>
-    <t>ABA381</t>
-  </si>
-  <si>
-    <t>ABA382</t>
-  </si>
-  <si>
-    <t>ABA383</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ABA408</t>
+  </si>
+  <si>
+    <t>ABA409</t>
+  </si>
+  <si>
+    <t>ABA410</t>
+  </si>
+  <si>
+    <t>ABA411</t>
+  </si>
+  <si>
+    <t>ABA412</t>
+  </si>
+  <si>
+    <t>ABA413</t>
+  </si>
+  <si>
+    <t>ABA414</t>
+  </si>
+  <si>
+    <t>ABA415</t>
+  </si>
+  <si>
+    <t>ABA416</t>
   </si>
 </sst>
 </file>
@@ -612,28 +601,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMC10"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="1017" width="9.109375" style="1" customWidth="1"/>
-    <col min="1018" max="1024" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="1017" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1018" max="1024" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -661,10 +650,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -672,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -681,19 +673,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -701,54 +696,57 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -759,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -768,16 +766,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -788,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -797,16 +795,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -817,31 +815,28 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -849,31 +844,28 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -881,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -890,16 +882,16 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -910,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -919,16 +911,16 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -947,22 +939,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
-  <dimension ref="A1:AMD26"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="1018" width="9.109375" style="1" customWidth="1"/>
-    <col min="1019" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="1018" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1019" max="1025" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,9 +976,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="A2" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A2</f>
+        <v>X</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -998,7 +988,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA375</v>
+        <v>ABA408</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1008,9 +998,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="A3" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A3</f>
+        <v>X</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1020,19 +1010,19 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA376</v>
+        <v>ABA409</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="A4" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A4</f>
+        <v>X</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1042,19 +1032,19 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA377</v>
+        <v>ABA410</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="A5" s="1">
+        <f>'01-RegistrarAtencion'!A5</f>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1064,484 +1054,427 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA378</v>
+        <v>ABA411</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA379</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="1">
+        <f>'01-RegistrarAtencion'!A6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA380</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="1">
+        <f>'01-RegistrarAtencion'!A7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
-        <v>X</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA381</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <f>'01-RegistrarAtencion'!A8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
-        <v>X</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA382</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="1">
+        <f>'01-RegistrarAtencion'!A9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA383</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <f>'01-RegistrarAtencion'!D11</f>
+      <c r="A10" s="1">
+        <f>'01-RegistrarAtencion'!A10</f>
         <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <f>'01-RegistrarAtencion'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <f>'01-RegistrarAtencion'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <f>'01-RegistrarAtencion'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <f>'01-RegistrarAtencion'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <f>'01-RegistrarAtencion'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <f>'01-RegistrarAtencion'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1">
-        <f>'01-RegistrarAtencion'!D18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1">
-        <f>'01-RegistrarAtencion'!D19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <f>'01-RegistrarAtencion'!D20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1">
-        <f>'01-RegistrarAtencion'!D21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <f>'01-RegistrarAtencion'!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <f>'01-RegistrarAtencion'!D23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <f>'01-RegistrarAtencion'!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1">
-        <f>'01-RegistrarAtencion'!D25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="str">
-        <f>IF('01-RegistrarAtencion'!A26="X","X"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <f>'01-RegistrarAtencion'!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F38DA22A-F66F-48EF-A246-7CC780DC453E}"/>
-    <hyperlink ref="B3:B26" r:id="rId2" display="clegall@gmail.com" xr:uid="{BFFAE488-3FED-4EFA-AACA-FBBB98F5C98A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{539B428D-6F6D-4E7B-9E08-F978316EE028}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{555577FD-DEB6-4943-9200-0A97263081AC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3BEB8098-14A3-41BE-ADE5-52226F072453}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EF0715-2225-417F-A144-59346197A027}">
+  <dimension ref="A1:AMJ10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="1017" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1018" max="1024" width="9.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A2</f>
+        <v>X</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D2</f>
+        <v>ABA408</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A3</f>
+        <v>X</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D3</f>
+        <v>ABA409</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>'01-RegistrarAtencion'!A4</f>
+        <v>X</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D4</f>
+        <v>ABA410</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>'01-RegistrarAtencion'!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D5</f>
+        <v>ABA411</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>'01-RegistrarAtencion'!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D6</f>
+        <v>ABA412</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>'01-RegistrarAtencion'!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D7</f>
+        <v>ABA413</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f>'01-RegistrarAtencion'!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D8</f>
+        <v>ABA414</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>'01-RegistrarAtencion'!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D9</f>
+        <v>ABA415</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>'01-RegistrarAtencion'!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D10</f>
+        <v>ABA416</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A33F62C5-12A6-4E78-A6CA-1A8D27934FB8}"/>
+    <hyperlink ref="B3:B5" r:id="rId2" display="usuario.test.geo@gmail.com " xr:uid="{6B6C8008-5768-4945-B263-C28040EC8626}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{3A257BB6-5488-41DC-8B17-59499679045C}"/>
+    <hyperlink ref="B7:B9" r:id="rId4" display="usuario.test.geo@gmail.com " xr:uid="{3D821944-14C9-435C-82F5-1A68EC078B8E}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{6E52C79C-2172-4B59-ACAA-DFFFFC4FBFD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A40FB5-8510-48C9-9298-B8C1E79774BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A1C143-84BA-492B-A17B-8BC3C19C02AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="38">
   <si>
     <t>usar</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Avenida juan de arona 780, San isidro</t>
   </si>
   <si>
-    <t>tambo real</t>
-  </si>
-  <si>
     <t>Miraflores</t>
   </si>
   <si>
@@ -122,15 +119,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>ABA408</t>
-  </si>
-  <si>
-    <t>ABA409</t>
-  </si>
-  <si>
-    <t>ABA410</t>
-  </si>
-  <si>
     <t>ABA411</t>
   </si>
   <si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t>ABA416</t>
+  </si>
+  <si>
+    <t>tambo real 236</t>
+  </si>
+  <si>
+    <t>ABA417</t>
+  </si>
+  <si>
+    <t>ABA418</t>
+  </si>
+  <si>
+    <t>ABA419</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,12 +650,12 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -673,21 +673,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -696,30 +696,30 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -728,25 +728,25 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -766,16 +766,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -795,16 +795,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -815,25 +815,25 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -882,16 +882,16 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -911,16 +911,16 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +942,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +988,10 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA408</v>
+        <v>ABA411</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1010,10 +1010,10 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA409</v>
+        <v>ABA412</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1032,10 +1032,10 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA410</v>
+        <v>ABA413</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1054,10 +1054,10 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA411</v>
+        <v>ABA414</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1068,29 +1068,109 @@
         <f>'01-RegistrarAtencion'!A6</f>
         <v>0</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D6</f>
+        <v>ABA415</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>'01-RegistrarAtencion'!A7</f>
         <v>0</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D7</f>
+        <v>ABA416</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>'01-RegistrarAtencion'!A8</f>
         <v>0</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D8</f>
+        <v>ABA417</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>'01-RegistrarAtencion'!A9</f>
         <v>0</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D9</f>
+        <v>ABA418</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>'01-RegistrarAtencion'!A10</f>
         <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D10</f>
+        <v>ABA419</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1178,13 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F38DA22A-F66F-48EF-A246-7CC780DC453E}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{539B428D-6F6D-4E7B-9E08-F978316EE028}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{555577FD-DEB6-4943-9200-0A97263081AC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3BEB8098-14A3-41BE-ADE5-52226F072453}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C5FB44D5-7E6B-40BD-B9FB-4ED70DEF9C5A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{465CB31A-4D9F-4CB3-8BE6-93E0F15670AE}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{88B95EB1-5912-4324-A65F-606C9EBF7276}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{F1A6A6E9-6EDD-40E7-8B64-932C32C2E094}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{ED2A6A96-6F4B-40B0-8F25-B582500C773E}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{3E430D5E-C24B-4E39-A676-849DE083B266}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{EB02D42B-932A-417B-973D-1A35B9BB16BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1108,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EF0715-2225-417F-A144-59346197A027}">
-  <dimension ref="A1:AMJ10"/>
+  <dimension ref="A1:AMI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,11 +1209,11 @@
     <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="1017" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="1018" max="1024" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="1016" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1017" max="1023" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,13 +1239,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>'01-RegistrarAtencion'!A2</f>
         <v>X</v>
@@ -1173,7 +1255,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA408</v>
+        <v>ABA411</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1182,19 +1264,16 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>'01-RegistrarAtencion'!A3</f>
         <v>X</v>
@@ -1207,28 +1286,25 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA409</v>
+        <v>ABA412</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f>'01-RegistrarAtencion'!A4</f>
         <v>X</v>
@@ -1241,28 +1317,25 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA410</v>
+        <v>ABA413</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>'01-RegistrarAtencion'!A5</f>
         <v>0</v>
@@ -1275,7 +1348,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA411</v>
+        <v>ABA414</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1284,19 +1357,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>'01-RegistrarAtencion'!A6</f>
         <v>0</v>
@@ -1309,7 +1379,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA412</v>
+        <v>ABA415</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1318,19 +1388,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>'01-RegistrarAtencion'!A7</f>
         <v>0</v>
@@ -1343,28 +1410,25 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA413</v>
+        <v>ABA416</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>'01-RegistrarAtencion'!A8</f>
         <v>0</v>
@@ -1377,28 +1441,25 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA414</v>
+        <v>ABA417</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>'01-RegistrarAtencion'!A9</f>
         <v>0</v>
@@ -1411,7 +1472,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA415</v>
+        <v>ABA418</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1420,19 +1481,16 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>'01-RegistrarAtencion'!A10</f>
         <v>0</v>
@@ -1445,7 +1503,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA416</v>
+        <v>ABA419</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1454,16 +1512,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A1C143-84BA-492B-A17B-8BC3C19C02AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B81A9-9201-482A-B8A2-8473BEC1791E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="39">
   <si>
     <t>usar</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ABA419</t>
+  </si>
+  <si>
+    <t>El caso no puede ser registrado. Ya existe otro caso en proceso con la misma placa</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,9 +979,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A2</f>
-        <v>X</v>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -998,9 +1000,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A3</f>
-        <v>X</v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1020,9 +1021,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A4</f>
-        <v>X</v>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1042,10 +1042,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f>'01-RegistrarAtencion'!A5</f>
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1064,10 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f>'01-RegistrarAtencion'!A6</f>
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1086,10 +1080,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f>'01-RegistrarAtencion'!A7</f>
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1108,10 +1099,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f>'01-RegistrarAtencion'!A8</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1130,10 +1118,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f>'01-RegistrarAtencion'!A9</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1152,10 +1137,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f>'01-RegistrarAtencion'!A10</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1178,7 @@
   <dimension ref="A1:AMI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,9 +1225,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A2</f>
-        <v>X</v>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -1267,16 +1248,15 @@
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A3</f>
-        <v>X</v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1298,16 +1278,15 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="str">
-        <f>'01-RegistrarAtencion'!A4</f>
-        <v>X</v>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -1329,17 +1308,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f>'01-RegistrarAtencion'!A5</f>
-        <v>0</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1360,17 +1335,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f>'01-RegistrarAtencion'!A6</f>
-        <v>0</v>
-      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1391,17 +1362,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f>'01-RegistrarAtencion'!A7</f>
-        <v>0</v>
-      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1422,17 +1389,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f>'01-RegistrarAtencion'!A8</f>
-        <v>0</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1453,17 +1416,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f>'01-RegistrarAtencion'!A9</f>
-        <v>0</v>
-      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1484,17 +1443,13 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f>'01-RegistrarAtencion'!A10</f>
-        <v>0</v>
-      </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1515,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B81A9-9201-482A-B8A2-8473BEC1791E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA51AA-62A6-4ECE-AF28-9A2E8B308C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -119,37 +119,46 @@
     <t>*</t>
   </si>
   <si>
-    <t>ABA411</t>
-  </si>
-  <si>
-    <t>ABA412</t>
-  </si>
-  <si>
-    <t>ABA413</t>
-  </si>
-  <si>
-    <t>ABA414</t>
-  </si>
-  <si>
-    <t>ABA415</t>
-  </si>
-  <si>
-    <t>ABA416</t>
-  </si>
-  <si>
     <t>tambo real 236</t>
   </si>
   <si>
-    <t>ABA417</t>
-  </si>
-  <si>
-    <t>ABA418</t>
-  </si>
-  <si>
-    <t>ABA419</t>
-  </si>
-  <si>
     <t>El caso no puede ser registrado. Ya existe otro caso en proceso con la misma placa</t>
+  </si>
+  <si>
+    <t>ABA421</t>
+  </si>
+  <si>
+    <t>ABA422</t>
+  </si>
+  <si>
+    <t>ABA423</t>
+  </si>
+  <si>
+    <t>ABA424</t>
+  </si>
+  <si>
+    <t>ABA425</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO1</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO2</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO3</t>
+  </si>
+  <si>
+    <t>ABA426</t>
+  </si>
+  <si>
+    <t>ABA427</t>
+  </si>
+  <si>
+    <t>ABA428</t>
+  </si>
+  <si>
+    <t>ABA429</t>
   </si>
 </sst>
 </file>
@@ -606,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -699,13 +708,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -731,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -753,6 +762,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -760,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -782,6 +792,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -789,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -811,6 +822,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -818,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -840,6 +852,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -847,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -869,6 +882,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -876,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -898,6 +912,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -905,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -945,13 +960,14 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.109375" style="7" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="1018" width="9.109375" style="1" customWidth="1" collapsed="1"/>
@@ -990,10 +1006,10 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA411</v>
+        <v>ABA421</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1011,10 +1027,10 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA412</v>
+        <v>ABA422</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1032,10 +1048,10 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA413</v>
+        <v>ABA423</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1051,7 +1067,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA414</v>
+        <v>ABA424</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1070,7 +1086,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA415</v>
+        <v>ABA425</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -1089,7 +1105,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA416</v>
+        <v>ABA426</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1108,7 +1124,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA417</v>
+        <v>ABA427</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1127,7 +1143,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA418</v>
+        <v>ABA428</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -1146,7 +1162,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA419</v>
+        <v>ABA429</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1177,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EF0715-2225-417F-A144-59346197A027}">
   <dimension ref="A1:AMI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1206,7 @@
     <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="72.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="1016" width="9.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="1017" max="1023" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
@@ -1236,7 +1252,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA411</v>
+        <v>ABA421</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1248,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
@@ -1266,19 +1282,19 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA412</v>
+        <v>ABA422</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1296,7 +1312,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA413</v>
+        <v>ABA423</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1308,13 +1324,14 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1340,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA414</v>
+        <v>ABA424</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1335,13 +1352,14 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1368,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA415</v>
+        <v>ABA425</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1362,13 +1380,14 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1377,25 +1396,26 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA416</v>
+        <v>ABA426</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1424,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA417</v>
+        <v>ABA427</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1416,13 +1436,14 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1452,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA418</v>
+        <v>ABA428</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1443,13 +1464,14 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1480,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA419</v>
+        <v>ABA429</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1470,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA51AA-62A6-4ECE-AF28-9A2E8B308C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B42530-6923-4B8B-B4D9-00C6577AB757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>usar</t>
   </si>
@@ -125,21 +125,6 @@
     <t>El caso no puede ser registrado. Ya existe otro caso en proceso con la misma placa</t>
   </si>
   <si>
-    <t>ABA421</t>
-  </si>
-  <si>
-    <t>ABA422</t>
-  </si>
-  <si>
-    <t>ABA423</t>
-  </si>
-  <si>
-    <t>ABA424</t>
-  </si>
-  <si>
-    <t>ABA425</t>
-  </si>
-  <si>
     <t>PROCURADOR AUTO1</t>
   </si>
   <si>
@@ -159,6 +144,21 @@
   </si>
   <si>
     <t>ABA429</t>
+  </si>
+  <si>
+    <t>ABA430</t>
+  </si>
+  <si>
+    <t>ABA431</t>
+  </si>
+  <si>
+    <t>ABA432</t>
+  </si>
+  <si>
+    <t>ABA433</t>
+  </si>
+  <si>
+    <t>ABA434</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -730,9 +730,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -740,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -770,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -800,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -960,7 +958,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,10 +1004,10 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA421</v>
+        <v>ABA426</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1027,19 +1025,17 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA422</v>
+        <v>ABA427</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1048,10 +1044,10 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA423</v>
+        <v>ABA428</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1067,7 +1063,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA424</v>
+        <v>ABA429</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1086,7 +1082,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA425</v>
+        <v>ABA430</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -1105,7 +1101,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA426</v>
+        <v>ABA431</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1124,7 +1120,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA427</v>
+        <v>ABA432</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1143,7 +1139,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA428</v>
+        <v>ABA433</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -1162,7 +1158,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA429</v>
+        <v>ABA434</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA421</v>
+        <v>ABA426</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1282,7 +1278,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA422</v>
+        <v>ABA427</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1312,7 +1308,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA423</v>
+        <v>ABA428</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1340,7 +1336,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA424</v>
+        <v>ABA429</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1368,7 +1364,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA425</v>
+        <v>ABA430</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1396,7 +1392,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA426</v>
+        <v>ABA431</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1424,7 +1420,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA427</v>
+        <v>ABA432</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA428</v>
+        <v>ABA433</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1480,7 +1476,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA429</v>
+        <v>ABA434</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B42530-6923-4B8B-B4D9-00C6577AB757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8DEB4-79DE-4CD6-939C-BE42AADD2651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,31 +134,31 @@
     <t>PROCURADOR AUTO3</t>
   </si>
   <si>
-    <t>ABA426</t>
-  </si>
-  <si>
-    <t>ABA427</t>
-  </si>
-  <si>
-    <t>ABA428</t>
-  </si>
-  <si>
-    <t>ABA429</t>
-  </si>
-  <si>
-    <t>ABA430</t>
-  </si>
-  <si>
-    <t>ABA431</t>
-  </si>
-  <si>
-    <t>ABA432</t>
-  </si>
-  <si>
-    <t>ABA433</t>
-  </si>
-  <si>
-    <t>ABA434</t>
+    <t>ABA437</t>
+  </si>
+  <si>
+    <t>ABA438</t>
+  </si>
+  <si>
+    <t>ABA439</t>
+  </si>
+  <si>
+    <t>ABA440</t>
+  </si>
+  <si>
+    <t>ABA441</t>
+  </si>
+  <si>
+    <t>ABA442</t>
+  </si>
+  <si>
+    <t>ABA443</t>
+  </si>
+  <si>
+    <t>ABA444</t>
+  </si>
+  <si>
+    <t>ABA445</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA426</v>
+        <v>ABA437</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA427</v>
+        <v>ABA438</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA428</v>
+        <v>ABA439</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA429</v>
+        <v>ABA440</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA430</v>
+        <v>ABA441</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA431</v>
+        <v>ABA442</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA432</v>
+        <v>ABA443</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA433</v>
+        <v>ABA444</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA434</v>
+        <v>ABA445</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA426</v>
+        <v>ABA437</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA427</v>
+        <v>ABA438</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA428</v>
+        <v>ABA439</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA429</v>
+        <v>ABA440</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>'01-RegistrarAtencion'!D6</f>
-        <v>ABA430</v>
+        <v>ABA441</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>'01-RegistrarAtencion'!D7</f>
-        <v>ABA431</v>
+        <v>ABA442</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>'01-RegistrarAtencion'!D8</f>
-        <v>ABA432</v>
+        <v>ABA443</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>'01-RegistrarAtencion'!D9</f>
-        <v>ABA433</v>
+        <v>ABA444</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>'01-RegistrarAtencion'!D10</f>
-        <v>ABA434</v>
+        <v>ABA445</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>

--- a/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/dataPool/DataPrueba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
@@ -165,6 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D10"/>
@@ -621,16 +622,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="1017" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="1018" max="1024" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="33.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="25.44140625" collapsed="true"/>
+    <col min="9" max="1017" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="1018" max="1024" customWidth="true" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -955,7 +956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
@@ -963,13 +964,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="1018" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="1019" max="1025" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
+    <col min="6" max="1018" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="1019" max="1025" customWidth="true" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1187,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EF0715-2225-417F-A144-59346197A027}">
-  <dimension ref="A1:AMI10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1195,16 +1196,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="1016" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="1017" max="1023" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="33.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="72.5546875" collapsed="true"/>
+    <col min="9" max="1016" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="1017" max="1023" customWidth="true" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
